--- a/q3.xlsx
+++ b/q3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Technical Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3857C312-2CF5-4B99-B170-1FD1DB0B8EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A72CC-A418-4756-BAAA-EE4542A26102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2F685FF4-A7B6-4D22-981F-A7B352A0750D}"/>
+    <workbookView xWindow="1512" yWindow="1092" windowWidth="21624" windowHeight="11244" activeTab="1" xr2:uid="{2F685FF4-A7B6-4D22-981F-A7B352A0750D}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer Report 1" sheetId="2" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>Estimated Surgery Duration (hours)</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Interaction</t>
   </si>
 </sst>
 </file>
@@ -346,16 +349,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,10 +797,10 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>30.18</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>25.33</v>
       </c>
     </row>
@@ -832,10 +833,10 @@
       <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -849,10 +850,10 @@
       <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -866,10 +867,10 @@
       <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -883,10 +884,10 @@
       <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -900,10 +901,10 @@
       <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -917,10 +918,10 @@
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -934,10 +935,10 @@
       <c r="C27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -951,10 +952,10 @@
       <c r="C28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -993,7 +994,7 @@
       <c r="C33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>11.5</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -1026,7 +1027,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,7 +1035,7 @@
     <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1052,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -1072,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <f>D3*(1-E3/100)</f>
+        <f t="shared" ref="F3:F10" si="0">D3*(1-E3/100)</f>
         <v>4.5</v>
       </c>
       <c r="G3">
@@ -1093,7 +1094,7 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <f>D4*(1-E4/100)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G4">
@@ -1114,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <f>D5*(1-E5/100)</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="G5">
@@ -1135,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="F6">
-        <f>D6*(1-E6/100)</f>
+        <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
       <c r="G6">
@@ -1156,7 +1157,7 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <f>D7*(1-E7/100)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="G7">
@@ -1177,7 +1178,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <f>D8*(1-E8/100)</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="G8">
@@ -1198,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <f>D9*(1-E9/100)</f>
+        <f t="shared" si="0"/>
         <v>8.73</v>
       </c>
       <c r="G9">
@@ -1219,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <f>D10*(1-E10/100)</f>
+        <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="G10">
